--- a/Efekt2/Dane_Połączone.xlsx
+++ b/Efekt2/Dane_Połączone.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumenty\Studia\Analityka\IV_semestr\Zarządzanie projektem analiza danych gospodarczych\Rr\Efekt2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fearl\Documents\Projekt\zarzadzanie_projektami\Efekt2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA27276-EA7A-4C93-843D-33FE4EAC73D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC16D7E6-7300-47A9-B075-4FF98251F5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1_Zespół projektowy" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,8 @@
     <sheet name="r&amp;d_budget" sheetId="6" r:id="rId7"/>
     <sheet name="use_cloud" sheetId="7" r:id="rId8"/>
     <sheet name="work_on_weekends" sheetId="8" r:id="rId9"/>
-    <sheet name="emp_deadline" sheetId="9" r:id="rId10"/>
-    <sheet name="working_population" sheetId="10" r:id="rId11"/>
+    <sheet name="working_population" sheetId="10" r:id="rId10"/>
+    <sheet name="emp_deadline" sheetId="9" r:id="rId11"/>
     <sheet name="physicians" sheetId="12" r:id="rId12"/>
     <sheet name="population" sheetId="11" r:id="rId13"/>
     <sheet name="Zmienne kategoryczne" sheetId="13" r:id="rId14"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="97">
   <si>
     <t>Lp.</t>
   </si>
@@ -349,7 +349,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.##########"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -394,6 +394,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Palatino Linotype"/>
+      <family val="1"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -413,7 +420,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -436,12 +443,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -553,6 +571,10 @@
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -840,9 +862,9 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -853,7 +875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -864,7 +886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -875,7 +897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -892,225 +914,225 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C26A74B0-1756-43A0-B71D-25944CDA4B44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9236979-4EAC-4A31-937E-B249C51C3C6E}">
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B26"/>
+      <selection activeCell="B1" sqref="B1:B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="22">
-        <v>42.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="B2" s="25">
+        <v>5720.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="26">
-        <v>45.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="B3" s="25">
+        <v>7280.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="25">
-        <v>33.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="B4" s="26">
+        <v>4726.6000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="28">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="B5" s="25">
+        <v>2785.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="22">
-        <v>33.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="B6" s="25">
+        <v>7026.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="21">
-        <v>51.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="B7" s="26">
+        <v>3643.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="25">
-        <v>38.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="B8" s="26">
+        <v>848.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="26">
-        <v>42.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="B9" s="25">
+        <v>3455.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="25">
-        <v>44.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="B10" s="26">
+        <v>40956.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="26">
-        <v>40.299999999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="B11" s="25">
+        <v>52963.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="25">
-        <v>55.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="B12" s="26">
+        <v>6987.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="26">
-        <v>45.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="B13" s="25">
+        <v>6530.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="22">
-        <v>48.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="B14" s="25">
+        <v>3080.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="21">
-        <v>37.200000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="B15" s="26">
+        <v>39034.800000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="22">
-        <v>29.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="B16" s="25">
+        <v>1274.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="21">
-        <v>32.700000000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="B17" s="26">
+        <v>1934.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="25">
-        <v>39.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="B18" s="26">
+        <v>10950.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="21">
-        <v>34.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="B19" s="26">
+        <v>25127.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="22">
-        <v>43.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="B20" s="27">
+        <v>6743</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="23">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="B21" s="26">
+        <v>13403.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="27">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="B22" s="28">
+        <v>3834</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="26">
-        <v>46.6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="B23" s="25">
+        <v>1382.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="22">
-        <v>52.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="B24" s="25">
+        <v>30641.599999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="21">
-        <v>52.7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="B25" s="26">
+        <v>6170.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="22">
-        <v>55.7</v>
+      <c r="B26" s="25">
+        <v>41287.199999999997</v>
       </c>
     </row>
   </sheetData>
@@ -1122,225 +1144,225 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9236979-4EAC-4A31-937E-B249C51C3C6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C26A74B0-1756-43A0-B71D-25944CDA4B44}">
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B1" sqref="B1:B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="25">
-        <v>5720.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="B2" s="22">
+        <v>42.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="25">
-        <v>7280.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="B3" s="26">
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="26">
-        <v>4726.6000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="B4" s="25">
+        <v>33.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="25">
-        <v>2785.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="B5" s="28">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="25">
-        <v>7026.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="B6" s="22">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="26">
-        <v>3643.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="B7" s="21">
+        <v>51.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="26">
-        <v>848.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="B8" s="25">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="25">
-        <v>3455.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="B9" s="26">
+        <v>42.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="26">
-        <v>40956.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="B10" s="25">
+        <v>44.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="25">
-        <v>52963.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="B11" s="26">
+        <v>40.299999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="26">
-        <v>6987.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="B12" s="25">
+        <v>55.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="25">
-        <v>6530.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="B13" s="26">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="25">
-        <v>3080.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="B14" s="22">
+        <v>48.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="26">
-        <v>39034.800000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="B15" s="21">
+        <v>37.200000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="25">
-        <v>1274.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
+      <c r="B16" s="22">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="26">
-        <v>1934.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="B17" s="21">
+        <v>32.700000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="26">
-        <v>10950.4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="B18" s="25">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="26">
-        <v>25127.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
+      <c r="B19" s="21">
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="27">
-        <v>6743</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="B20" s="22">
+        <v>43.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="26">
-        <v>13403.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+      <c r="B21" s="23">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="28">
-        <v>3834</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="B22" s="27">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="25">
-        <v>1382.4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="B23" s="26">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="25">
-        <v>30641.599999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+      <c r="B24" s="22">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="26">
-        <v>6170.2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+      <c r="B25" s="21">
+        <v>52.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="25">
-        <v>41287.199999999997</v>
+      <c r="B26" s="22">
+        <v>55.7</v>
       </c>
     </row>
   </sheetData>
@@ -1353,224 +1375,405 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29864554-71FD-4932-A1D5-AD7502648B55}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="D1" sqref="D1:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="34">
         <v>44002</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="34">
+        <v>8584926</v>
+      </c>
+      <c r="D2">
+        <f>B2/C2*1000</f>
+        <v>5.1254955488259304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="34">
         <v>34020</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="34">
+        <v>11237274</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D26" si="0">B3/C3*1000</f>
+        <v>3.027424622733236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>39</v>
       </c>
       <c r="B4" s="33">
         <v>29002</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="33">
+        <v>7202198</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>4.026826254984937</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>48</v>
       </c>
       <c r="B5" s="34">
         <v>13430</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="34">
+        <v>4225316</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>3.1784604985757277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>40</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="34">
+        <v>10538275</v>
+      </c>
+      <c r="D6">
+        <f>AVERAGE(D2:D5,D7:D26)</f>
+        <v>3.6397359683867223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="33">
         <v>22332</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="33">
+        <v>5659715</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>3.9457817222245293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="33">
         <v>4492</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="33">
+        <v>1314870</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>3.4163073155521078</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="34">
         <v>18258</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="34">
+        <v>5471753</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>3.3367734252624341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="33">
         <v>206710</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="33">
+        <v>66458153</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>3.1103783459043766</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
         <v>42</v>
       </c>
       <c r="B11" s="34">
         <v>338129</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="34">
+        <v>81197537</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>4.1642765592754376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
         <v>45</v>
       </c>
       <c r="B12" s="33">
         <v>63866</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="33">
+        <v>10858018</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>5.8819206230824079</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
         <v>52</v>
       </c>
       <c r="B13" s="34">
         <v>30486</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" s="34">
+        <v>9855571</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>3.0932758741223618</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="34">
         <v>14666</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" s="34">
+        <v>4677627</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>3.1353504672347752</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
         <v>49</v>
       </c>
       <c r="B15" s="33">
         <v>233102</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" s="33">
+        <v>60795612</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>3.8341911912984772</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
         <v>50</v>
       </c>
       <c r="B16" s="34">
         <v>6324</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="34">
+        <v>1986096</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>3.18413611426638</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
         <v>51</v>
       </c>
       <c r="B17" s="33">
         <v>13490</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="33">
+        <v>2921262</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>4.6178672094457802</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="32" t="s">
         <v>53</v>
       </c>
       <c r="B18" s="33">
         <v>59144</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="33">
+        <v>16900726</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>3.4994946370942879</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="32" t="s">
         <v>55</v>
       </c>
       <c r="B19" s="33">
         <v>88437</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="33">
+        <v>38005614</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>2.3269456980750265</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="32" t="s">
         <v>56</v>
       </c>
       <c r="B20" s="34">
         <v>47792</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="34">
+        <v>10374822</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>4.6065368639577624</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="32" t="s">
         <v>57</v>
       </c>
       <c r="B21" s="33">
         <v>54807</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="33">
+        <v>19870647</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>2.7581890010929184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="s">
         <v>59</v>
       </c>
       <c r="B22" s="33">
         <v>18719</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="33">
+        <v>5421349</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>3.4528306515592337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="32" t="s">
         <v>58</v>
       </c>
       <c r="B23" s="34">
         <v>5830</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="34">
+        <v>2062874</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>2.826154190706752</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="32" t="s">
         <v>46</v>
       </c>
       <c r="B24" s="34">
         <v>178600</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="34">
+        <v>46449565</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>3.8450306262286849</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="32" t="s">
         <v>61</v>
       </c>
       <c r="B25" s="33">
         <v>40914</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="33">
+        <v>9747355</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>4.1974463841729373</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="32" t="s">
         <v>62</v>
       </c>
       <c r="B26" s="34">
         <v>179162</v>
+      </c>
+      <c r="C26" s="34">
+        <v>64853393</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>2.7625694156048244</v>
       </c>
     </row>
   </sheetData>
@@ -1586,16 +1789,16 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="B1" sqref="B1:B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1603,7 +1806,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>54</v>
       </c>
@@ -1611,7 +1814,7 @@
         <v>8584926</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>38</v>
       </c>
@@ -1619,7 +1822,7 @@
         <v>11237274</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>39</v>
       </c>
@@ -1627,7 +1830,7 @@
         <v>7202198</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>48</v>
       </c>
@@ -1635,7 +1838,7 @@
         <v>4225316</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>40</v>
       </c>
@@ -1643,7 +1846,7 @@
         <v>10538275</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>41</v>
       </c>
@@ -1651,7 +1854,7 @@
         <v>5659715</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>43</v>
       </c>
@@ -1659,7 +1862,7 @@
         <v>1314870</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>60</v>
       </c>
@@ -1667,7 +1870,7 @@
         <v>5471753</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>47</v>
       </c>
@@ -1675,7 +1878,7 @@
         <v>66458153</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>42</v>
       </c>
@@ -1683,7 +1886,7 @@
         <v>81197537</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>45</v>
       </c>
@@ -1691,7 +1894,7 @@
         <v>10858018</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>52</v>
       </c>
@@ -1699,7 +1902,7 @@
         <v>9855571</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>44</v>
       </c>
@@ -1707,7 +1910,7 @@
         <v>4677627</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>49</v>
       </c>
@@ -1715,7 +1918,7 @@
         <v>60795612</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>50</v>
       </c>
@@ -1723,7 +1926,7 @@
         <v>1986096</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>51</v>
       </c>
@@ -1731,7 +1934,7 @@
         <v>2921262</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>53</v>
       </c>
@@ -1739,7 +1942,7 @@
         <v>16900726</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>55</v>
       </c>
@@ -1747,7 +1950,7 @@
         <v>38005614</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>56</v>
       </c>
@@ -1755,7 +1958,7 @@
         <v>10374822</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>57</v>
       </c>
@@ -1763,7 +1966,7 @@
         <v>19870647</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>59</v>
       </c>
@@ -1771,7 +1974,7 @@
         <v>5421349</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>58</v>
       </c>
@@ -1779,7 +1982,7 @@
         <v>2062874</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
         <v>46</v>
       </c>
@@ -1787,7 +1990,7 @@
         <v>46449565</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>61</v>
       </c>
@@ -1795,7 +1998,7 @@
         <v>9747355</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>62</v>
       </c>
@@ -1815,20 +2018,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873DA154-FF41-4FA2-841F-1708803FB4CF}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1845,7 +2048,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -1862,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -1879,7 +2082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1896,7 +2099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -1913,7 +2116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -1930,7 +2133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -1947,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -1964,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -1981,7 +2184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -1998,7 +2201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -2015,7 +2218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -2032,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -2049,7 +2252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -2066,7 +2269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -2083,7 +2286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -2100,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -2117,7 +2320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -2134,7 +2337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -2151,7 +2354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -2168,7 +2371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -2185,7 +2388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -2202,7 +2405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -2219,7 +2422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -2236,7 +2439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -2253,7 +2456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>62</v>
       </c>
@@ -2280,17 +2483,17 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -2301,7 +2504,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -2312,7 +2515,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -2323,7 +2526,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>83</v>
       </c>
@@ -2334,7 +2537,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -2345,7 +2548,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -2356,7 +2559,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -2367,7 +2570,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -2378,7 +2581,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,7 +2592,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>85</v>
       </c>
@@ -2400,7 +2603,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>87</v>
       </c>
@@ -2411,7 +2614,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -2422,7 +2625,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -2433,7 +2636,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
@@ -2444,7 +2647,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
@@ -2455,7 +2658,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>90</v>
       </c>
@@ -2463,17 +2666,17 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>93</v>
       </c>
@@ -2481,7 +2684,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>95</v>
       </c>
@@ -2493,31 +2696,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE4138A-B166-4608-B1F1-E7613ADD2C49}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>15</v>
       </c>
@@ -2561,7 +2764,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>54</v>
       </c>
@@ -2618,7 +2821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
         <v>38</v>
       </c>
@@ -2675,7 +2878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
         <v>39</v>
       </c>
@@ -2732,7 +2935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
         <v>48</v>
       </c>
@@ -2789,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="35" t="s">
         <v>40</v>
       </c>
@@ -2846,7 +3049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="35" t="s">
         <v>41</v>
       </c>
@@ -2903,7 +3106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
         <v>43</v>
       </c>
@@ -2960,7 +3163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
         <v>60</v>
       </c>
@@ -3017,7 +3220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
         <v>47</v>
       </c>
@@ -3074,7 +3277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
         <v>80</v>
       </c>
@@ -3131,7 +3334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
         <v>45</v>
       </c>
@@ -3188,7 +3391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="35" t="s">
         <v>52</v>
       </c>
@@ -3245,7 +3448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="35" t="s">
         <v>44</v>
       </c>
@@ -3302,7 +3505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
         <v>49</v>
       </c>
@@ -3359,7 +3562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
         <v>50</v>
       </c>
@@ -3416,7 +3619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
         <v>51</v>
       </c>
@@ -3473,7 +3676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
         <v>53</v>
       </c>
@@ -3530,7 +3733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
         <v>55</v>
       </c>
@@ -3587,7 +3790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="35" t="s">
         <v>56</v>
       </c>
@@ -3644,7 +3847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="35" t="s">
         <v>57</v>
       </c>
@@ -3701,7 +3904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="35" t="s">
         <v>59</v>
       </c>
@@ -3758,7 +3961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="35" t="s">
         <v>58</v>
       </c>
@@ -3815,7 +4018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="35" t="s">
         <v>46</v>
       </c>
@@ -3872,7 +4075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="35" t="s">
         <v>61</v>
       </c>
@@ -3929,7 +4132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="35" t="s">
         <v>62</v>
       </c>
@@ -3984,6 +4187,168 @@
       <c r="N26" s="40">
         <f>'Zmienne kategoryczne'!E26</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="42">
+        <f>AVERAGE(B2:B26)</f>
+        <v>23676.799999999999</v>
+      </c>
+      <c r="C27" s="42">
+        <f t="shared" ref="C27:N27" si="0">AVERAGE(C2:C26)</f>
+        <v>862.65249422198508</v>
+      </c>
+      <c r="D27" s="42">
+        <f t="shared" si="0"/>
+        <v>1.7023999999999999</v>
+      </c>
+      <c r="E27" s="42">
+        <f t="shared" si="0"/>
+        <v>1.1820000000000002</v>
+      </c>
+      <c r="F27" s="42">
+        <f t="shared" si="0"/>
+        <v>24.96</v>
+      </c>
+      <c r="G27" s="42">
+        <f t="shared" si="0"/>
+        <v>24.431999999999999</v>
+      </c>
+      <c r="H27" s="42">
+        <f t="shared" si="0"/>
+        <v>43.216000000000001</v>
+      </c>
+      <c r="I27" s="42">
+        <f t="shared" si="0"/>
+        <v>65.345842168748362</v>
+      </c>
+      <c r="J27" s="42">
+        <f t="shared" si="0"/>
+        <v>3.6397359683867219</v>
+      </c>
+      <c r="K27" s="42">
+        <f t="shared" si="0"/>
+        <v>0.84</v>
+      </c>
+      <c r="L27" s="42" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M27" s="42">
+        <f t="shared" si="0"/>
+        <v>0.64</v>
+      </c>
+      <c r="N27" s="42">
+        <f t="shared" si="0"/>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <f>_xlfn.STDEV.S(B2:B26)</f>
+        <v>13148.343913461751</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:N28" si="1">_xlfn.STDEV.S(C2:C26)</f>
+        <v>567.75464565359391</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>0.83929176492246593</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>0.42803816029259123</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>9.0068492456204297</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>7.9834057060045982</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>8.6751887587533112</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>1.7620875427872169</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>0.81118908761198982</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>0.37416573867739411</v>
+      </c>
+      <c r="L28" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="1"/>
+        <v>0.4898979485566356</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="1"/>
+        <v>0.50662280511902213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <f t="shared" ref="B29:M29" si="2">B28/B27</f>
+        <v>0.55532605392036727</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="2"/>
+        <v>0.65814989170771987</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>0.49300503108697485</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>0.36213042325938338</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>0.36085133195594671</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>0.32676022044878023</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>0.20074020637618731</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>2.6965564821045875E-2</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="2"/>
+        <v>0.22287031110433586</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="2"/>
+        <v>0.44543540318737396</v>
+      </c>
+      <c r="L29" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="2"/>
+        <v>0.76546554461974314</v>
+      </c>
+      <c r="N29">
+        <f>N28/N27</f>
+        <v>0.90468358056968234</v>
       </c>
     </row>
   </sheetData>
@@ -3996,16 +4361,16 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B26"/>
+      <selection sqref="A1:B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -4013,7 +4378,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>54</v>
       </c>
@@ -4021,7 +4386,7 @@
         <v>36140</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
@@ -4029,7 +4394,7 @@
         <v>34360</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>39</v>
       </c>
@@ -4037,7 +4402,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>48</v>
       </c>
@@ -4045,7 +4410,7 @@
         <v>10770</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>40</v>
       </c>
@@ -4053,7 +4418,7 @@
         <v>16290</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
@@ -4061,7 +4426,7 @@
         <v>45630</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>43</v>
       </c>
@@ -4069,7 +4434,7 @@
         <v>13230</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>60</v>
       </c>
@@ -4077,7 +4442,7 @@
         <v>34460</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>47</v>
       </c>
@@ -4085,7 +4450,7 @@
         <v>31540</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>42</v>
       </c>
@@ -4093,7 +4458,7 @@
         <v>34130</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>45</v>
       </c>
@@ -4101,7 +4466,7 @@
         <v>16900</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
@@ -4109,7 +4474,7 @@
         <v>11220</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>44</v>
       </c>
@@ -4117,7 +4482,7 @@
         <v>49620</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
@@ -4125,7 +4490,7 @@
         <v>25860</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>50</v>
       </c>
@@ -4133,7 +4498,7 @@
         <v>10750</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>51</v>
       </c>
@@ -4141,7 +4506,7 @@
         <v>11620</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>53</v>
       </c>
@@ -4149,7 +4514,7 @@
         <v>39170</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>55</v>
       </c>
@@ -4157,7 +4522,7 @@
         <v>10890</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>56</v>
       </c>
@@ -4165,7 +4530,7 @@
         <v>16620</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>57</v>
       </c>
@@ -4173,7 +4538,7 @@
         <v>7290</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>59</v>
       </c>
@@ -4181,7 +4546,7 @@
         <v>14300</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>58</v>
       </c>
@@ -4189,7 +4554,7 @@
         <v>17990</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>46</v>
       </c>
@@ -4197,7 +4562,7 @@
         <v>23080</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>61</v>
       </c>
@@ -4205,7 +4570,7 @@
         <v>42580</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>62</v>
       </c>
@@ -4226,16 +4591,16 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B1" sqref="B1:B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -4243,7 +4608,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>54</v>
       </c>
@@ -4251,7 +4616,7 @@
         <v>9909</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
@@ -4259,7 +4624,7 @@
         <v>20546</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>39</v>
       </c>
@@ -4267,7 +4632,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>48</v>
       </c>
@@ -4275,7 +4640,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>40</v>
       </c>
@@ -4283,7 +4648,7 @@
         <v>12918</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
@@ -4291,7 +4656,7 @@
         <v>6702</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>43</v>
       </c>
@@ -4299,7 +4664,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>60</v>
       </c>
@@ -4307,7 +4672,7 @@
         <v>5148</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>47</v>
       </c>
@@ -4315,7 +4680,7 @@
         <v>50808</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>42</v>
       </c>
@@ -4323,7 +4688,7 @@
         <v>80890</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>45</v>
       </c>
@@ -4331,7 +4696,7 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
@@ -4339,7 +4704,7 @@
         <v>8331</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>44</v>
       </c>
@@ -4347,7 +4712,7 @@
         <v>12083</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
@@ -4355,7 +4720,7 @@
         <v>23229</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>50</v>
       </c>
@@ -4363,7 +4728,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>51</v>
       </c>
@@ -4371,7 +4736,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>53</v>
       </c>
@@ -4379,7 +4744,7 @@
         <v>20573</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>55</v>
       </c>
@@ -4387,7 +4752,7 @@
         <v>14685</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>56</v>
       </c>
@@ -4395,7 +4760,7 @@
         <v>3640</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>57</v>
       </c>
@@ -4403,7 +4768,7 @@
         <v>5220</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>59</v>
       </c>
@@ -4411,7 +4776,7 @@
         <v>8088</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>58</v>
       </c>
@@ -4419,7 +4784,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>46</v>
       </c>
@@ -4427,7 +4792,7 @@
         <v>17396</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>61</v>
       </c>
@@ -4435,7 +4800,7 @@
         <v>12478</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="32" t="s">
         <v>62</v>
       </c>
@@ -4456,16 +4821,16 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1:B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -4473,7 +4838,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>54</v>
       </c>
@@ -4481,7 +4846,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>38</v>
       </c>
@@ -4489,7 +4854,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
@@ -4497,7 +4862,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>48</v>
       </c>
@@ -4505,7 +4870,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>40</v>
       </c>
@@ -4513,7 +4878,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>41</v>
       </c>
@@ -4521,7 +4886,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
@@ -4529,7 +4894,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>60</v>
       </c>
@@ -4537,7 +4902,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>47</v>
       </c>
@@ -4545,7 +4910,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>42</v>
       </c>
@@ -4553,7 +4918,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>45</v>
       </c>
@@ -4561,7 +4926,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>52</v>
       </c>
@@ -4569,7 +4934,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>44</v>
       </c>
@@ -4577,7 +4942,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>49</v>
       </c>
@@ -4585,7 +4950,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>50</v>
       </c>
@@ -4593,7 +4958,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>51</v>
       </c>
@@ -4601,7 +4966,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>53</v>
       </c>
@@ -4609,7 +4974,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>55</v>
       </c>
@@ -4617,7 +4982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>56</v>
       </c>
@@ -4625,7 +4990,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>57</v>
       </c>
@@ -4633,7 +4998,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>59</v>
       </c>
@@ -4641,7 +5006,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>58</v>
       </c>
@@ -4649,7 +5014,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>46</v>
       </c>
@@ -4657,7 +5022,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>61</v>
       </c>
@@ -4665,7 +5030,7 @@
         <v>3.22</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>62</v>
       </c>
@@ -4686,16 +5051,16 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B26"/>
+      <selection activeCell="B1" sqref="B1:B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -4703,7 +5068,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>54</v>
       </c>
@@ -4711,7 +5076,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>38</v>
       </c>
@@ -4719,7 +5084,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>39</v>
       </c>
@@ -4727,7 +5092,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>48</v>
       </c>
@@ -4735,7 +5100,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>40</v>
       </c>
@@ -4743,7 +5108,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>41</v>
       </c>
@@ -4751,7 +5116,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>43</v>
       </c>
@@ -4759,7 +5124,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>60</v>
       </c>
@@ -4767,7 +5132,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>47</v>
       </c>
@@ -4775,7 +5140,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>42</v>
       </c>
@@ -4783,7 +5148,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>45</v>
       </c>
@@ -4791,7 +5156,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>52</v>
       </c>
@@ -4799,7 +5164,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>44</v>
       </c>
@@ -4807,7 +5172,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>49</v>
       </c>
@@ -4815,7 +5180,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>50</v>
       </c>
@@ -4823,7 +5188,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>51</v>
       </c>
@@ -4831,7 +5196,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>53</v>
       </c>
@@ -4839,7 +5204,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>55</v>
       </c>
@@ -4847,7 +5212,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>56</v>
       </c>
@@ -4855,7 +5220,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>57</v>
       </c>
@@ -4863,7 +5228,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>59</v>
       </c>
@@ -4871,7 +5236,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>58</v>
       </c>
@@ -4879,7 +5244,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>46</v>
       </c>
@@ -4887,7 +5252,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>61</v>
       </c>
@@ -4895,7 +5260,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>62</v>
       </c>
@@ -4916,16 +5281,16 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B26"/>
+      <selection activeCell="B1" sqref="B1:B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -4933,7 +5298,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>54</v>
       </c>
@@ -4941,7 +5306,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>38</v>
       </c>
@@ -4949,7 +5314,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>39</v>
       </c>
@@ -4957,7 +5322,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>48</v>
       </c>
@@ -4965,7 +5330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>40</v>
       </c>
@@ -4973,7 +5338,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>41</v>
       </c>
@@ -4981,7 +5346,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>43</v>
       </c>
@@ -4989,7 +5354,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>60</v>
       </c>
@@ -4997,7 +5362,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>47</v>
       </c>
@@ -5005,7 +5370,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>42</v>
       </c>
@@ -5013,7 +5378,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>45</v>
       </c>
@@ -5021,7 +5386,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>52</v>
       </c>
@@ -5029,7 +5394,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>44</v>
       </c>
@@ -5037,7 +5402,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>49</v>
       </c>
@@ -5045,7 +5410,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>50</v>
       </c>
@@ -5053,7 +5418,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>51</v>
       </c>
@@ -5061,7 +5426,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>53</v>
       </c>
@@ -5069,7 +5434,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>55</v>
       </c>
@@ -5077,7 +5442,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>56</v>
       </c>
@@ -5085,7 +5450,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>57</v>
       </c>
@@ -5093,7 +5458,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>59</v>
       </c>
@@ -5101,7 +5466,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>58</v>
       </c>
@@ -5109,7 +5474,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>46</v>
       </c>
@@ -5117,7 +5482,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>61</v>
       </c>
@@ -5125,7 +5490,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>62</v>
       </c>
@@ -5146,16 +5511,16 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B26"/>
+      <selection activeCell="B1" sqref="B1:B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -5163,7 +5528,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>54</v>
       </c>
@@ -5171,7 +5536,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>38</v>
       </c>
@@ -5179,7 +5544,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>39</v>
       </c>
@@ -5187,7 +5552,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>48</v>
       </c>
@@ -5195,7 +5560,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>40</v>
       </c>
@@ -5203,7 +5568,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>41</v>
       </c>
@@ -5211,7 +5576,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>43</v>
       </c>
@@ -5219,7 +5584,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>60</v>
       </c>
@@ -5227,7 +5592,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>47</v>
       </c>
@@ -5235,7 +5600,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>42</v>
       </c>
@@ -5243,7 +5608,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>45</v>
       </c>
@@ -5251,7 +5616,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>52</v>
       </c>
@@ -5259,7 +5624,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>44</v>
       </c>
@@ -5267,7 +5632,7 @@
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>49</v>
       </c>
@@ -5275,7 +5640,7 @@
         <v>35.6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>50</v>
       </c>
@@ -5283,7 +5648,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>51</v>
       </c>
@@ -5291,7 +5656,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>53</v>
       </c>
@@ -5299,7 +5664,7 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>55</v>
       </c>
@@ -5307,7 +5672,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>56</v>
       </c>
@@ -5315,7 +5680,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>57</v>
       </c>
@@ -5323,7 +5688,7 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>59</v>
       </c>
@@ -5331,7 +5696,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>58</v>
       </c>
@@ -5339,7 +5704,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>46</v>
       </c>
@@ -5347,7 +5712,7 @@
         <v>31.9</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>61</v>
       </c>
@@ -5355,7 +5720,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>62</v>
       </c>
